--- a/data/trans_dic/IP43-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP43-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,28; 36,22</t>
+          <t>6,89; 36,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,9; 40,25</t>
+          <t>9,36; 40,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 26,89</t>
+          <t>2,7; 26,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,53; 36,31</t>
+          <t>4,6; 38,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 25,23</t>
+          <t>7,42; 26,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 32,96</t>
+          <t>10,85; 31,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,6; 40,35</t>
+          <t>26,3; 39,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,02; 20,52</t>
+          <t>9,87; 20,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,05; 39,87</t>
+          <t>26,61; 40,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,01; 22,13</t>
+          <t>11,02; 21,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,0; 38,56</t>
+          <t>27,98; 38,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 19,91</t>
+          <t>11,9; 19,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,58; 38,43</t>
+          <t>28,9; 38,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,53; 22,04</t>
+          <t>13,6; 21,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,87; 36,94</t>
+          <t>26,05; 36,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,18; 21,14</t>
+          <t>13,61; 21,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,97; 36,0</t>
+          <t>29,26; 36,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,37; 19,91</t>
+          <t>14,48; 20,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,44; 21,18</t>
+          <t>12,48; 21,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 8,84</t>
+          <t>3,11; 8,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,21; 21,69</t>
+          <t>11,97; 21,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 9,84</t>
+          <t>4,35; 10,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,36; 20,17</t>
+          <t>13,38; 19,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,27; 8,41</t>
+          <t>4,24; 8,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,11; 17,15</t>
+          <t>9,48; 17,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 9,78</t>
+          <t>4,04; 9,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,19; 19,37</t>
+          <t>10,79; 19,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,3; 13,46</t>
+          <t>6,08; 13,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,05; 16,91</t>
+          <t>11,04; 16,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,77; 10,22</t>
+          <t>6,06; 10,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1235,12 +1235,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,87; 25,73</t>
+          <t>20,98; 25,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,6; 13,34</t>
+          <t>9,76; 13,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,45; 25,56</t>
+          <t>20,37; 25,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,42; 14,32</t>
+          <t>10,43; 14,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,36; 25,05</t>
+          <t>21,46; 25,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,56; 13,27</t>
+          <t>10,56; 13,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/IP43-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP43-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,12 +632,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>29,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>30,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,89; 36,99</t>
+          <t>23,21; 36,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,36; 40,6</t>
+          <t>11,66; 23,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0; 0,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 26,61</t>
+          <t>24,5; 37,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 38,17</t>
+          <t>11,41; 21,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0; 1,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,42; 26,95</t>
+          <t>26,01; 34,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,85; 31,75</t>
+          <t>13,0; 20,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>0; 0,52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,87%</t>
+          <t>31,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>33,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -772,12 +772,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,3; 39,73</t>
+          <t>26,3; 36,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,87; 20,54</t>
+          <t>13,34; 21,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,61; 40,62</t>
+          <t>28,42; 39,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,02; 21,9</t>
+          <t>13,9; 21,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,98; 38,23</t>
+          <t>29,18; 36,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,9; 19,42</t>
+          <t>14,46; 20,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0; 0,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,12 +852,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>33,5%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>31,41%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,9; 38,97</t>
+          <t>12,24; 21,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,6; 21,75</t>
+          <t>4,37; 9,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>0; 0,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,05; 36,6</t>
+          <t>12,19; 21,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,61; 21,34</t>
+          <t>3,19; 9,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0; 0,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,26; 36,46</t>
+          <t>13,45; 20,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,48; 20,2</t>
+          <t>4,23; 8,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -992,12 +992,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,48; 21,72</t>
+          <t>10,66; 18,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 8,86</t>
+          <t>6,54; 13,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>0; 0,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,97; 21,48</t>
+          <t>9,07; 16,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 10,18</t>
+          <t>4,12; 9,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0; 0,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,38; 19,73</t>
+          <t>10,92; 16,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 8,21</t>
+          <t>5,91; 10,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0; 0,4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,12 +1072,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1087,12 +1087,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1102,12 +1102,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>23,1%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,48; 17,6</t>
+          <t>20,17; 25,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,63</t>
+          <t>10,65; 14,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,79; 19,36</t>
+          <t>20,9; 25,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,08; 13,31</t>
+          <t>9,65; 13,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,04; 16,92</t>
+          <t>21,44; 24,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,06; 10,5</t>
+          <t>10,62; 13,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0; 0,1</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>23,37%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>11,46%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>22,81%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>12,33%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>23,1%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>11,88%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>20,98; 25,92</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>9,76; 13,68</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>20,37; 25,65</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>10,43; 14,35</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>21,46; 25,02</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>10,56; 13,31</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
